--- a/pred_ohlcv/54_21/2020-01-11 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>25329900.65863745</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25100343.83883745</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>25368900.76543745</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>25370182.49543745</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>25208537.08483745</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24971941.35613745</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>24438591.89463745</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24442383.96443745</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>24483659.62883745</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>21226591.28773746</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>21226591.28773746</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>21226591.28773746</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>20604643.82253746</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>22320626.32233746</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>19117815.04548496</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>17804117.09498496</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>17748472.57358496</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>18133547.77908495</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>18117348.45148496</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>18321769.08911276</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>18223599.73611276</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>18224820.93751276</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>18199497.99131276</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>17554182.53766228</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>17920681.26686227</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>17880916.31766227</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>17912572.70406227</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>17593277.74046227</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>17902520.18176227</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>17903265.25906227</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17745525.94166227</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17746192.37516227</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>18230324.40556227</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>18055262.12686227</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>18295448.60366227</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17865705.60996227</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>17881515.60996227</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>17882015.60996227</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>17520540.84176226</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>22138018.05082512</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>22947656.54259578</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>27809931.40938482</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>28579308.23709578</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>29023026.43928673</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>34294179.45208673</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>34990580.02628673</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>34856116.59718673</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>35506723.70998673</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>36059794.35868673</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>35376887.05738673</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>37995400.61567126</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>37983468.04762987</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>37865879.67932987</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>37207953.29672987</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>36641267.40772987</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>37177229.72592987</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>37036172.66152987</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>34948071.25122987</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>34416514.84772987</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>34535112.86012987</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>34533988.92602987</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>34433213.09282987</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>34368435.17832987</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>25329900.65863745</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25100343.83883745</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>25368900.76543745</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>25370182.49543745</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>25208537.08483745</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24971941.35613745</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24537926.30123745</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>24438591.89463745</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24442383.96443745</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>24483659.62883745</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>20904192.66193746</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>20912691.66193746</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>21077990.35593746</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>20604643.82253746</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>22320626.32233746</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>22668419.32023746</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>19117815.04548496</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>17804117.09498496</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>17748472.57358496</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>18169163.60738495</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>18192509.03518495</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>18192759.03518495</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>18121348.45148496</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>18122348.45148496</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>18117848.61601276</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>18098560.92321276</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>18098737.92321276</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>18223599.73611276</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>18224820.93751276</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>18199497.99131276</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>17554182.53766228</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>17757335.46456227</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>17920681.26686227</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>17880916.31766227</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>17912572.70406227</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>18048957.30366227</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>18043957.30366227</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>18044350.50316227</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>18049188.95596227</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>17949959.89306227</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>17952579.41196227</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>17721897.96316227</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>17721897.96316227</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>17723982.29746227</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17723982.29746227</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>17593277.74046227</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>17593277.74046227</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>17902520.18176227</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>17903265.25906227</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>17878501.23026227</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17745525.94166227</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>17746192.37516227</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>17746192.37516227</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>17873021.93436227</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>17880129.92436226</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>21991636.66926226</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>21833129.83727902</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>21926122.69167902</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>22138018.05082512</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>22947656.54259578</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>27809931.40938482</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>34990580.02628673</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>34856116.59718673</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>35506723.70998673</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>36059794.35868673</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>35376887.05738673</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>35259940.02398673</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>37995400.61567126</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>37983468.04762987</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>38005879.67932987</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>37865879.67932987</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>37207953.29672987</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>36641267.40772987</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>37177229.72592987</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>37036172.66152987</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>34416514.84772987</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
